--- a/ExcelTools/src/main/resources/excelTemplate/001.xlsx
+++ b/ExcelTools/src/main/resources/excelTemplate/001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7860" tabRatio="812" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7650" tabRatio="812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="申請人等作成用１" sheetId="55" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="567">
   <si>
     <r>
       <rPr>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>1　国　籍・地　域</t>
+  </si>
+  <si>
+    <t>${name}</t>
   </si>
   <si>
     <t>2　生年月日</t>
@@ -2637,10 +2640,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -2772,21 +2775,51 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2794,14 +2827,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2809,38 +2850,68 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2848,75 +2919,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2930,13 +2933,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2948,121 +3035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3080,19 +3059,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,13 +3095,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3872,21 +3875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3921,6 +3909,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3943,164 +3957,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="66" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4385,7 +4388,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5612,55 +5615,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5693,8 +5696,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6096000" y="752475"/>
-          <a:ext cx="1228725" cy="1619250"/>
+          <a:off x="6096000" y="733425"/>
+          <a:ext cx="1228725" cy="1609725"/>
           <a:chOff x="631" y="79"/>
           <a:chExt cx="125" cy="168"/>
         </a:xfrm>
@@ -6169,8 +6172,8 @@
   </sheetPr>
   <dimension ref="A1:BE79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="X66" sqref="X66:AD67"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -6265,7 +6268,7 @@
       <c r="AJ2" s="19"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" ht="13.5" spans="1:36">
+    <row r="3" spans="1:36">
       <c r="A3" s="2"/>
       <c r="B3" s="17" t="s">
         <v>3</v>
@@ -6378,7 +6381,7 @@
       <c r="AJ5" s="33"/>
       <c r="AK5" s="79"/>
     </row>
-    <row r="6" ht="15.75" spans="1:37">
+    <row r="6" ht="15" spans="1:37">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -6750,7 +6753,9 @@
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="365"/>
+      <c r="G15" s="365" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
@@ -6761,7 +6766,7 @@
       <c r="O15" s="67"/>
       <c r="P15" s="67"/>
       <c r="R15" s="359" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S15" s="359"/>
       <c r="T15" s="359"/>
@@ -6771,19 +6776,19 @@
       <c r="Y15" s="400"/>
       <c r="Z15" s="400"/>
       <c r="AA15" s="96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB15" s="96"/>
       <c r="AC15" s="67"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF15" s="96"/>
       <c r="AG15" s="67"/>
       <c r="AH15" s="67"/>
       <c r="AI15" s="359" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" s="55"/>
       <c r="AK15" s="166"/>
@@ -6791,7 +6796,7 @@
     <row r="16" s="352" customFormat="1" ht="12.75" customHeight="1" spans="1:37">
       <c r="A16" s="366"/>
       <c r="B16" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="17"/>
@@ -6807,7 +6812,7 @@
       <c r="P16" s="362"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T16" s="46"/>
       <c r="U16" s="46"/>
@@ -6816,19 +6821,19 @@
       <c r="Y16" s="401"/>
       <c r="Z16" s="401"/>
       <c r="AA16" s="393" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB16" s="393"/>
       <c r="AC16" s="362"/>
       <c r="AD16" s="362"/>
       <c r="AE16" s="393" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF16" s="393"/>
       <c r="AG16" s="362"/>
       <c r="AH16" s="362"/>
       <c r="AI16" s="404" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="442"/>
@@ -6842,7 +6847,7 @@
       <c r="F17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
@@ -6851,7 +6856,7 @@
       <c r="N17" s="154"/>
       <c r="O17" s="20"/>
       <c r="Q17" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R17" s="154"/>
       <c r="S17" s="20"/>
@@ -6877,14 +6882,16 @@
     </row>
     <row r="18" s="353" customFormat="1" ht="16.5" customHeight="1" spans="1:40">
       <c r="A18" s="89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="359"/>
       <c r="C18" s="359"/>
       <c r="D18" s="368"/>
       <c r="E18" s="96"/>
       <c r="F18" s="96"/>
-      <c r="G18" s="365"/>
+      <c r="G18" s="365" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
@@ -6922,7 +6929,7 @@
     <row r="19" s="352" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A19" s="369"/>
       <c r="B19" s="46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="370"/>
       <c r="D19" s="370"/>
@@ -7004,24 +7011,24 @@
     </row>
     <row r="21" s="110" customFormat="1" ht="14.25" customHeight="1" spans="1:37">
       <c r="A21" s="89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="359"/>
       <c r="C21" s="359"/>
       <c r="D21" s="359"/>
       <c r="E21" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
       <c r="J21" s="359" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
@@ -7039,7 +7046,7 @@
       <c r="X21" s="377"/>
       <c r="Y21" s="377"/>
       <c r="AA21" s="55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB21" s="55"/>
       <c r="AC21" s="55"/>
@@ -7047,7 +7054,7 @@
       <c r="AE21" s="55"/>
       <c r="AF21" s="55"/>
       <c r="AG21" s="163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH21" s="163"/>
       <c r="AI21" s="163"/>
@@ -7057,12 +7064,12 @@
     <row r="22" s="352" customFormat="1" ht="11.25" customHeight="1" spans="1:37">
       <c r="A22" s="371"/>
       <c r="B22" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="373" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="374"/>
       <c r="G22" s="374"/>
@@ -7070,7 +7077,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -7088,14 +7095,14 @@
       <c r="Y22" s="378"/>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
       <c r="AF22" s="17"/>
       <c r="AG22" s="446" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH22" s="446"/>
       <c r="AI22" s="446"/>
@@ -7143,7 +7150,7 @@
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:37">
       <c r="A24" s="89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="359"/>
       <c r="C24" s="359"/>
@@ -7157,7 +7164,7 @@
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
       <c r="M24" s="359" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N24" s="55"/>
       <c r="O24" s="55"/>
@@ -7187,7 +7194,7 @@
     <row r="25" s="352" customFormat="1" ht="11.25" customHeight="1" spans="1:37">
       <c r="A25" s="371"/>
       <c r="B25" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -7200,7 +7207,7 @@
       <c r="K25" s="362"/>
       <c r="L25" s="362"/>
       <c r="N25" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
@@ -7267,7 +7274,7 @@
     </row>
     <row r="27" s="110" customFormat="1" ht="14.25" customHeight="1" spans="1:37">
       <c r="A27" s="116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -7309,7 +7316,7 @@
     <row r="28" ht="11.25" customHeight="1" spans="1:37">
       <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -7389,7 +7396,7 @@
     <row r="30" s="110" customFormat="1" ht="14.25" customHeight="1" spans="1:57">
       <c r="A30" s="116"/>
       <c r="B30" s="359" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="359"/>
       <c r="D30" s="359"/>
@@ -7407,7 +7414,7 @@
       <c r="Q30" s="67"/>
       <c r="R30" s="67"/>
       <c r="T30" s="359" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U30" s="55"/>
       <c r="V30" s="359"/>
@@ -7431,7 +7438,7 @@
     <row r="31" s="110" customFormat="1" ht="12.75" customHeight="1" spans="1:57">
       <c r="A31" s="116"/>
       <c r="B31" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="55"/>
@@ -7449,7 +7456,7 @@
       <c r="Q31" s="362"/>
       <c r="R31" s="362"/>
       <c r="T31" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U31" s="55"/>
       <c r="V31" s="55"/>
@@ -7511,12 +7518,12 @@
     </row>
     <row r="33" s="110" customFormat="1" ht="13.5" customHeight="1" spans="1:37">
       <c r="A33" s="89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="359"/>
       <c r="C33" s="359"/>
       <c r="E33" s="359" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="359"/>
       <c r="G33" s="55"/>
@@ -7531,7 +7538,7 @@
       <c r="P33" s="67"/>
       <c r="Q33" s="67"/>
       <c r="R33" s="359" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S33" s="55"/>
       <c r="V33" s="55"/>
@@ -7540,31 +7547,31 @@
       <c r="Z33" s="400"/>
       <c r="AA33" s="400"/>
       <c r="AB33" s="96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC33" s="96"/>
       <c r="AD33" s="67"/>
       <c r="AE33" s="67"/>
       <c r="AF33" s="96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG33" s="96"/>
       <c r="AH33" s="67"/>
       <c r="AI33" s="67"/>
       <c r="AJ33" s="359" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK33" s="166"/>
     </row>
     <row r="34" s="110" customFormat="1" ht="12.75" customHeight="1" spans="1:37">
       <c r="A34" s="116"/>
       <c r="B34" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="55"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -7579,7 +7586,7 @@
       <c r="Q34" s="362"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
@@ -7588,19 +7595,19 @@
       <c r="Z34" s="401"/>
       <c r="AA34" s="401"/>
       <c r="AB34" s="393" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC34" s="393"/>
       <c r="AD34" s="362"/>
       <c r="AE34" s="362"/>
       <c r="AF34" s="393" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG34" s="393"/>
       <c r="AH34" s="362"/>
       <c r="AI34" s="362"/>
       <c r="AJ34" s="404" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK34" s="166"/>
     </row>
@@ -7643,7 +7650,7 @@
     </row>
     <row r="36" s="110" customFormat="1" ht="13.5" customHeight="1" spans="1:37">
       <c r="A36" s="89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="359"/>
       <c r="C36" s="359"/>
@@ -7665,7 +7672,7 @@
       <c r="S36" s="67"/>
       <c r="T36" s="359"/>
       <c r="U36" s="359" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V36" s="55"/>
       <c r="W36" s="55"/>
@@ -7687,7 +7694,7 @@
     <row r="37" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A37" s="116"/>
       <c r="B37" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="55"/>
@@ -7708,7 +7715,7 @@
       <c r="S37" s="362"/>
       <c r="T37" s="2"/>
       <c r="U37" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="55"/>
@@ -7769,7 +7776,7 @@
     <row r="39" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A39" s="116"/>
       <c r="B39" s="359" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="359"/>
       <c r="D39" s="359"/>
@@ -7780,19 +7787,19 @@
       <c r="K39" s="400"/>
       <c r="L39" s="400"/>
       <c r="M39" s="96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N39" s="96"/>
       <c r="O39" s="67"/>
       <c r="P39" s="67"/>
       <c r="Q39" s="96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R39" s="96"/>
       <c r="S39" s="67"/>
       <c r="T39" s="67"/>
       <c r="U39" s="359" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V39" s="55"/>
       <c r="W39" s="55"/>
@@ -7814,7 +7821,7 @@
     <row r="40" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A40" s="116"/>
       <c r="B40" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -7825,19 +7832,19 @@
       <c r="K40" s="401"/>
       <c r="L40" s="401"/>
       <c r="M40" s="393" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N40" s="393"/>
       <c r="O40" s="362"/>
       <c r="P40" s="362"/>
       <c r="Q40" s="393" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R40" s="393"/>
       <c r="S40" s="362"/>
       <c r="T40" s="362"/>
       <c r="U40" s="404" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V40" s="55"/>
       <c r="W40" s="55"/>
@@ -7897,7 +7904,7 @@
     </row>
     <row r="42" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A42" s="89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="359"/>
       <c r="C42" s="359"/>
@@ -7932,7 +7939,7 @@
     <row r="43" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A43" s="116"/>
       <c r="B43" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -8004,7 +8011,7 @@
     </row>
     <row r="45" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A45" s="89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" s="359"/>
       <c r="C45" s="359"/>
@@ -8037,7 +8044,7 @@
     <row r="46" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A46" s="89"/>
       <c r="B46" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="359"/>
       <c r="D46" s="359"/>
@@ -8095,7 +8102,7 @@
     <row r="48" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A48" s="89"/>
       <c r="B48" s="55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="55"/>
       <c r="I48" s="375"/>
@@ -8109,7 +8116,7 @@
       <c r="Q48" s="67"/>
       <c r="R48" s="368"/>
       <c r="S48" s="368" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U48" s="368"/>
       <c r="V48" s="368"/>
@@ -8132,7 +8139,7 @@
     <row r="49" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A49" s="89"/>
       <c r="B49" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D49" s="55"/>
       <c r="E49" s="55"/>
@@ -8146,7 +8153,7 @@
       <c r="P49" s="362"/>
       <c r="Q49" s="362"/>
       <c r="S49" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB49" s="55"/>
       <c r="AC49" s="55"/>
@@ -8185,7 +8192,7 @@
     </row>
     <row r="51" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A51" s="89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="359"/>
       <c r="C51" s="359"/>
@@ -8227,7 +8234,7 @@
     <row r="52" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A52" s="116"/>
       <c r="B52" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="381"/>
       <c r="D52" s="381"/>
@@ -8306,7 +8313,7 @@
     </row>
     <row r="54" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A54" s="116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -8332,7 +8339,7 @@
       <c r="W54" s="55"/>
       <c r="X54" s="55"/>
       <c r="Z54" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB54" s="55"/>
       <c r="AC54" s="55"/>
@@ -8348,10 +8355,10 @@
     <row r="55" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A55" s="116"/>
       <c r="C55" s="382" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D55" s="381" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E55" s="381"/>
       <c r="F55" s="381"/>
@@ -8382,13 +8389,13 @@
       <c r="AE55" s="377"/>
       <c r="AF55" s="377"/>
       <c r="AG55" s="96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH55" s="96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI55" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ55" s="55"/>
       <c r="AK55" s="166"/>
@@ -8396,10 +8403,10 @@
     <row r="56" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A56" s="116"/>
       <c r="C56" s="383" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
@@ -8430,13 +8437,13 @@
       <c r="AE56" s="378"/>
       <c r="AF56" s="378"/>
       <c r="AG56" s="74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH56" s="74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI56" s="446" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ56" s="55"/>
       <c r="AK56" s="166"/>
@@ -8482,7 +8489,7 @@
     </row>
     <row r="58" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A58" s="116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -8524,7 +8531,7 @@
     <row r="59" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A59" s="116"/>
       <c r="B59" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
@@ -8564,12 +8571,12 @@
     </row>
     <row r="60" s="110" customFormat="1" customHeight="1" spans="1:37">
       <c r="A60" s="384" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="385"/>
       <c r="C60" s="386"/>
       <c r="D60" s="384" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="385"/>
       <c r="F60" s="385"/>
@@ -8580,24 +8587,24 @@
       <c r="K60" s="385"/>
       <c r="L60" s="386"/>
       <c r="M60" s="384" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N60" s="385"/>
       <c r="O60" s="385"/>
       <c r="P60" s="386"/>
       <c r="Q60" s="405" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R60" s="406"/>
       <c r="S60" s="407"/>
       <c r="T60" s="384" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U60" s="385"/>
       <c r="V60" s="385"/>
       <c r="W60" s="386"/>
       <c r="X60" s="384" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y60" s="385"/>
       <c r="Z60" s="385"/>
@@ -8606,7 +8613,7 @@
       <c r="AC60" s="385"/>
       <c r="AD60" s="386"/>
       <c r="AE60" s="432" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF60" s="433"/>
       <c r="AG60" s="433"/>
@@ -8647,7 +8654,7 @@
       <c r="AC61" s="388"/>
       <c r="AD61" s="389"/>
       <c r="AE61" s="434" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF61" s="435"/>
       <c r="AG61" s="435"/>
@@ -8658,12 +8665,12 @@
     </row>
     <row r="62" s="352" customFormat="1" ht="11.25" customHeight="1" spans="1:37">
       <c r="A62" s="390" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="74"/>
       <c r="C62" s="391"/>
       <c r="D62" s="390" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="74"/>
       <c r="F62" s="74"/>
@@ -8674,24 +8681,24 @@
       <c r="K62" s="74"/>
       <c r="L62" s="391"/>
       <c r="M62" s="390" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N62" s="74"/>
       <c r="O62" s="74"/>
       <c r="P62" s="391"/>
       <c r="Q62" s="411" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R62" s="412"/>
       <c r="S62" s="413"/>
       <c r="T62" s="414" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U62" s="415"/>
       <c r="V62" s="415"/>
       <c r="W62" s="416"/>
       <c r="X62" s="417" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y62" s="436"/>
       <c r="Z62" s="436"/>
@@ -8700,7 +8707,7 @@
       <c r="AC62" s="436"/>
       <c r="AD62" s="437"/>
       <c r="AE62" s="417" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF62" s="436"/>
       <c r="AG62" s="436"/>
@@ -8741,7 +8748,7 @@
       <c r="AC63" s="438"/>
       <c r="AD63" s="439"/>
       <c r="AE63" s="424" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF63" s="438"/>
       <c r="AG63" s="438"/>
@@ -8771,7 +8778,7 @@
       <c r="R64" s="396"/>
       <c r="S64" s="397"/>
       <c r="T64" s="425" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U64" s="425"/>
       <c r="V64" s="425"/>
@@ -8812,7 +8819,7 @@
       <c r="R65" s="450"/>
       <c r="S65" s="451"/>
       <c r="T65" s="467" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U65" s="468"/>
       <c r="V65" s="468"/>
@@ -8853,7 +8860,7 @@
       <c r="R66" s="453"/>
       <c r="S66" s="454"/>
       <c r="T66" s="470" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U66" s="470"/>
       <c r="V66" s="470"/>
@@ -8894,7 +8901,7 @@
       <c r="R67" s="450"/>
       <c r="S67" s="451"/>
       <c r="T67" s="467" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U67" s="468"/>
       <c r="V67" s="468"/>
@@ -8935,7 +8942,7 @@
       <c r="R68" s="453"/>
       <c r="S68" s="454"/>
       <c r="T68" s="425" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U68" s="425"/>
       <c r="V68" s="425"/>
@@ -8976,7 +8983,7 @@
       <c r="R69" s="450"/>
       <c r="S69" s="451"/>
       <c r="T69" s="467" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U69" s="468"/>
       <c r="V69" s="468"/>
@@ -9017,7 +9024,7 @@
       <c r="R70" s="453"/>
       <c r="S70" s="454"/>
       <c r="T70" s="470" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U70" s="470"/>
       <c r="V70" s="470"/>
@@ -9058,7 +9065,7 @@
       <c r="R71" s="450"/>
       <c r="S71" s="451"/>
       <c r="T71" s="467" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U71" s="468"/>
       <c r="V71" s="468"/>
@@ -9099,7 +9106,7 @@
       <c r="R72" s="453"/>
       <c r="S72" s="454"/>
       <c r="T72" s="425" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U72" s="425"/>
       <c r="V72" s="425"/>
@@ -9140,7 +9147,7 @@
       <c r="R73" s="450"/>
       <c r="S73" s="451"/>
       <c r="T73" s="467" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U73" s="468"/>
       <c r="V73" s="468"/>
@@ -9181,7 +9188,7 @@
       <c r="R74" s="453"/>
       <c r="S74" s="454"/>
       <c r="T74" s="425" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U74" s="425"/>
       <c r="V74" s="425"/>
@@ -9222,7 +9229,7 @@
       <c r="R75" s="362"/>
       <c r="S75" s="456"/>
       <c r="T75" s="472" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U75" s="473"/>
       <c r="V75" s="473"/>
@@ -9245,10 +9252,10 @@
     <row r="76" customHeight="1" spans="1:44">
       <c r="A76" s="457"/>
       <c r="B76" s="458" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="459" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D76" s="460"/>
       <c r="E76" s="460"/>
@@ -9386,7 +9393,7 @@
     </row>
     <row r="79" s="110" customFormat="1" ht="13.5" spans="1:37">
       <c r="A79" s="465" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" s="466"/>
       <c r="C79" s="466"/>
@@ -9555,7 +9562,7 @@
   <sheetPr/>
   <dimension ref="A1:IV106"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="80" topLeftCell="A31" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9570,7 +9577,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:12">
       <c r="A1" s="198" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="199"/>
       <c r="C1" s="199"/>
@@ -9586,7 +9593,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="200" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="201"/>
       <c r="C2" s="202"/>
@@ -9602,7 +9609,7 @@
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="204" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="205"/>
       <c r="C3" s="206"/>
@@ -9863,13 +9870,13 @@
     <row r="4" ht="15" spans="1:12">
       <c r="A4" s="209"/>
       <c r="B4" s="210" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="210" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" s="211" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E4" s="212"/>
       <c r="F4" s="212"/>
@@ -9885,13 +9892,13 @@
       <c r="B5" s="214"/>
       <c r="C5" s="214"/>
       <c r="D5" s="215" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="216"/>
       <c r="F5" s="216"/>
       <c r="G5" s="217"/>
       <c r="H5" s="218" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I5" s="311"/>
       <c r="J5" s="311"/>
@@ -9903,13 +9910,13 @@
       <c r="B6" s="214"/>
       <c r="C6" s="214"/>
       <c r="D6" s="219" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="220"/>
       <c r="F6" s="220"/>
       <c r="G6" s="221"/>
       <c r="H6" s="222" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I6" s="313"/>
       <c r="J6" s="313"/>
@@ -9948,87 +9955,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:12">
+    <row r="8" ht="24.75" spans="1:12">
       <c r="A8" s="230">
         <v>1</v>
       </c>
       <c r="B8" s="231" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="232" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D8" s="233" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E8" s="234" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="234" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="234" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="233" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I8" s="234" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J8" s="234" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8" s="234" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L8" s="234" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:12">
       <c r="A9" s="235"/>
       <c r="B9" s="236" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="237" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="238" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="239" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="239" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="240" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="237" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="238" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="239" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="239" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="240" t="s">
-        <v>116</v>
-      </c>
       <c r="H9" s="238" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I9" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J9" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K9" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L9" s="244" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="13.5" spans="1:12">
       <c r="A10" s="235"/>
       <c r="B10" s="241" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" s="242" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" s="243"/>
       <c r="E10" s="244"/>
@@ -10040,10 +10047,10 @@
       <c r="K10" s="244"/>
       <c r="L10" s="244"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" ht="24" spans="1:12">
       <c r="A11" s="235"/>
       <c r="B11" s="242" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="203"/>
       <c r="D11" s="243"/>
@@ -10059,7 +10066,7 @@
     <row r="12" ht="13.5" spans="1:12">
       <c r="A12" s="235"/>
       <c r="B12" s="246" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="242"/>
       <c r="D12" s="243"/>
@@ -10077,7 +10084,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="241" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="247"/>
       <c r="D13" s="243"/>
@@ -10093,7 +10100,7 @@
     <row r="14" ht="13.5" spans="1:256">
       <c r="A14" s="235"/>
       <c r="B14" s="248" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="242"/>
       <c r="D14" s="243"/>
@@ -10353,10 +10360,10 @@
     <row r="15" ht="13.5" spans="1:12">
       <c r="A15" s="235"/>
       <c r="B15" s="249" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="250" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D15" s="243"/>
       <c r="E15" s="244"/>
@@ -10371,10 +10378,10 @@
     <row r="16" spans="1:12">
       <c r="A16" s="251"/>
       <c r="B16" s="252" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="242" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D16" s="253"/>
       <c r="E16" s="226"/>
@@ -10391,47 +10398,47 @@
         <v>3</v>
       </c>
       <c r="B17" s="256" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" s="257" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D17" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E17" s="239" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F17" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="258" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I17" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J17" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="317" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AT17" s="5"/>
     </row>
     <row r="18" ht="13.5" spans="1:12">
       <c r="A18" s="235"/>
       <c r="B18" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" s="247" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D18" s="243"/>
       <c r="E18" s="244"/>
@@ -10443,13 +10450,13 @@
       <c r="K18" s="244"/>
       <c r="L18" s="318"/>
     </row>
-    <row r="19" ht="13.5" spans="1:12">
+    <row r="19" ht="24" spans="1:12">
       <c r="A19" s="235"/>
       <c r="B19" s="248" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D19" s="243"/>
       <c r="E19" s="244"/>
@@ -10464,7 +10471,7 @@
     <row r="20" ht="15" spans="1:12">
       <c r="A20" s="251"/>
       <c r="B20" s="259" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="260"/>
       <c r="D20" s="253"/>
@@ -10482,46 +10489,46 @@
         <v>4</v>
       </c>
       <c r="B21" s="241" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" s="247" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="239" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H21" s="238" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I21" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J21" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L21" s="317" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:256">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="24.75" spans="1:256">
       <c r="A22" s="251"/>
       <c r="B22" s="248" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" s="261" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D22" s="253"/>
       <c r="E22" s="226"/>
@@ -10782,46 +10789,46 @@
         <v>5</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="237" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D23" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="239" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="240" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" s="258" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I23" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J23" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L23" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" ht="13.5" spans="1:256">
       <c r="A24" s="235"/>
       <c r="B24" s="263" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="246" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" s="243"/>
       <c r="E24" s="244"/>
@@ -11080,10 +11087,10 @@
     <row r="25" ht="13.5" spans="1:12">
       <c r="A25" s="235"/>
       <c r="B25" s="265" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="247" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D25" s="243"/>
       <c r="E25" s="244"/>
@@ -11098,10 +11105,10 @@
     <row r="26" ht="13.5" spans="1:12">
       <c r="A26" s="235"/>
       <c r="B26" s="266" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" s="246" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="243"/>
       <c r="E26" s="244"/>
@@ -11116,10 +11123,10 @@
     <row r="27" ht="13.5" spans="1:12">
       <c r="A27" s="235"/>
       <c r="B27" s="241" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27" s="247" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D27" s="243"/>
       <c r="E27" s="244"/>
@@ -11134,10 +11141,10 @@
     <row r="28" ht="13.5" spans="1:12">
       <c r="A28" s="235"/>
       <c r="B28" s="241" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C28" s="242" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D28" s="243"/>
       <c r="E28" s="244"/>
@@ -11152,7 +11159,7 @@
     <row r="29" ht="13.5" spans="1:12">
       <c r="A29" s="235"/>
       <c r="B29" s="267" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" s="242"/>
       <c r="D29" s="243"/>
@@ -11168,7 +11175,7 @@
     <row r="30" ht="13.5" spans="1:12">
       <c r="A30" s="235"/>
       <c r="B30" s="248" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C30" s="242"/>
       <c r="D30" s="243"/>
@@ -11184,7 +11191,7 @@
     <row r="31" ht="13.5" spans="1:12">
       <c r="A31" s="235"/>
       <c r="B31" s="248" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" s="242"/>
       <c r="D31" s="243"/>
@@ -11200,7 +11207,7 @@
     <row r="32" ht="13.5" spans="1:12">
       <c r="A32" s="235"/>
       <c r="B32" s="249" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32" s="247"/>
       <c r="D32" s="243"/>
@@ -11216,7 +11223,7 @@
     <row r="33" ht="13.5" spans="1:12">
       <c r="A33" s="235"/>
       <c r="B33" s="265" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C33" s="242"/>
       <c r="D33" s="243"/>
@@ -11232,7 +11239,7 @@
     <row r="34" spans="1:256">
       <c r="A34" s="251"/>
       <c r="B34" s="268" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="269"/>
       <c r="D34" s="253"/>
@@ -11494,37 +11501,37 @@
         <v>6</v>
       </c>
       <c r="B35" s="272" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" s="273" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D35" s="274" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" s="275" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F35" s="275" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="276" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="274" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="276" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="274" t="s">
-        <v>165</v>
-      </c>
       <c r="I35" s="275" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J35" s="275" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K35" s="275" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L35" s="275" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M35" s="321"/>
       <c r="N35" s="321"/>
@@ -11774,7 +11781,7 @@
     <row r="36" spans="1:256">
       <c r="A36" s="277"/>
       <c r="B36" s="278" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C36" s="279"/>
       <c r="D36" s="280"/>
@@ -12034,7 +12041,7 @@
     <row r="37" spans="1:256">
       <c r="A37" s="277"/>
       <c r="B37" s="272" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" s="279"/>
       <c r="D37" s="280"/>
@@ -12294,7 +12301,7 @@
     <row r="38" ht="15" spans="1:256">
       <c r="A38" s="283"/>
       <c r="B38" s="284" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" s="285"/>
       <c r="D38" s="286"/>
@@ -12556,37 +12563,37 @@
         <v>7</v>
       </c>
       <c r="B39" s="289" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C39" s="290" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D39" s="274" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E39" s="275" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F39" s="275" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G39" s="276" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H39" s="274" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I39" s="275" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J39" s="275" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K39" s="275" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" s="275" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M39" s="321"/>
       <c r="N39" s="321"/>
@@ -12833,13 +12840,13 @@
       <c r="IU39" s="321"/>
       <c r="IV39" s="321"/>
     </row>
-    <row r="40" ht="27" spans="1:256">
+    <row r="40" ht="36" spans="1:256">
       <c r="A40" s="277"/>
       <c r="B40" s="278" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40" s="291" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D40" s="280"/>
       <c r="E40" s="281"/>
@@ -13098,7 +13105,7 @@
     <row r="41" spans="1:256">
       <c r="A41" s="277"/>
       <c r="B41" s="272" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C41" s="290"/>
       <c r="D41" s="280"/>
@@ -13358,7 +13365,7 @@
     <row r="42" spans="1:256">
       <c r="A42" s="277"/>
       <c r="B42" s="292" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C42" s="293"/>
       <c r="D42" s="280"/>
@@ -13618,10 +13625,10 @@
     <row r="43" ht="30.75" customHeight="1" spans="1:256">
       <c r="A43" s="277"/>
       <c r="B43" s="294" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C43" s="295" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D43" s="280"/>
       <c r="E43" s="281"/>
@@ -13877,13 +13884,13 @@
       <c r="IU43" s="321"/>
       <c r="IV43" s="321"/>
     </row>
-    <row r="44" ht="27" spans="1:256">
+    <row r="44" ht="35.25" spans="1:256">
       <c r="A44" s="277"/>
       <c r="B44" s="278" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C44" s="296" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D44" s="280"/>
       <c r="E44" s="281"/>
@@ -14142,7 +14149,7 @@
     <row r="45" ht="24" spans="1:256">
       <c r="A45" s="277"/>
       <c r="B45" s="294" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C45" s="295"/>
       <c r="D45" s="280"/>
@@ -14402,7 +14409,7 @@
     <row r="46" ht="41.25" customHeight="1" spans="1:256">
       <c r="A46" s="277"/>
       <c r="B46" s="292" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C46" s="278"/>
       <c r="D46" s="280"/>
@@ -14662,10 +14669,10 @@
     <row r="47" ht="29.25" customHeight="1" spans="1:256">
       <c r="A47" s="277"/>
       <c r="B47" s="297" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C47" s="298" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D47" s="280"/>
       <c r="E47" s="281"/>
@@ -14921,13 +14928,13 @@
       <c r="IU47" s="322"/>
       <c r="IV47" s="322"/>
     </row>
-    <row r="48" ht="24.75" spans="1:256">
+    <row r="48" ht="23.25" spans="1:256">
       <c r="A48" s="277"/>
       <c r="B48" s="299" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C48" s="299" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D48" s="280"/>
       <c r="E48" s="281"/>
@@ -15186,10 +15193,10 @@
     <row r="49" spans="1:256">
       <c r="A49" s="277"/>
       <c r="B49" s="300" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C49" s="301" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D49" s="280"/>
       <c r="E49" s="281"/>
@@ -15445,13 +15452,13 @@
       <c r="IU49" s="321"/>
       <c r="IV49" s="321"/>
     </row>
-    <row r="50" ht="27.75" spans="1:256">
+    <row r="50" ht="36.75" spans="1:256">
       <c r="A50" s="283"/>
       <c r="B50" s="302" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C50" s="296" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D50" s="286"/>
       <c r="E50" s="287"/>
@@ -15712,37 +15719,37 @@
         <v>8</v>
       </c>
       <c r="B51" s="262" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" s="237" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D51" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E51" s="239" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F51" s="239" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G51" s="240" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H51" s="238" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I51" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J51" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K51" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L51" s="317" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:12">
@@ -15750,37 +15757,37 @@
         <v>9</v>
       </c>
       <c r="B52" s="303" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C52" s="232" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D52" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E52" s="239" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F52" s="239" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G52" s="240" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H52" s="238" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I52" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J52" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K52" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L52" s="317" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:12">
@@ -15788,37 +15795,37 @@
         <v>10</v>
       </c>
       <c r="B53" s="303" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C53" s="232" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D53" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" s="239" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F53" s="239" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G53" s="240" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H53" s="238" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I53" s="239" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J53" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K53" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L53" s="317" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" ht="13.5" spans="1:12">
@@ -15826,46 +15833,46 @@
         <v>11</v>
       </c>
       <c r="B54" s="265" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C54" s="247" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D54" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" s="239" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F54" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G54" s="240" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H54" s="239" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I54" s="239" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J54" s="239" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K54" s="239" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L54" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" ht="13.5" spans="1:12">
       <c r="A55" s="235"/>
       <c r="B55" s="252" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C55" s="247" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D55" s="243"/>
       <c r="E55" s="244"/>
@@ -15881,7 +15888,7 @@
       <c r="A56" s="235"/>
       <c r="B56" s="252"/>
       <c r="C56" s="242" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D56" s="243"/>
       <c r="E56" s="244"/>
@@ -15897,7 +15904,7 @@
       <c r="A57" s="251"/>
       <c r="B57" s="260"/>
       <c r="C57" s="261" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" s="253"/>
       <c r="E57" s="226"/>
@@ -15914,41 +15921,41 @@
         <v>12</v>
       </c>
       <c r="B58" s="265" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C58" s="247"/>
       <c r="D58" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E58" s="239" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F58" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G58" s="240" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H58" s="238" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I58" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J58" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K58" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L58" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:12">
       <c r="A59" s="235"/>
       <c r="B59" s="304" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C59" s="247"/>
       <c r="D59" s="243"/>
@@ -15964,7 +15971,7 @@
     <row r="60" ht="13.5" spans="1:12">
       <c r="A60" s="235"/>
       <c r="B60" s="241" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C60" s="247"/>
       <c r="D60" s="243"/>
@@ -15980,7 +15987,7 @@
     <row r="61" ht="13.5" spans="1:256">
       <c r="A61" s="235"/>
       <c r="B61" s="242" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C61" s="305"/>
       <c r="D61" s="243"/>
@@ -16240,7 +16247,7 @@
     <row r="62" spans="1:256">
       <c r="A62" s="251"/>
       <c r="B62" s="248" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C62" s="305"/>
       <c r="D62" s="253"/>
@@ -16502,46 +16509,46 @@
         <v>13</v>
       </c>
       <c r="B63" s="236" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C63" s="237" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D63" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="239" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F63" s="239" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G63" s="240" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H63" s="238" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I63" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J63" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K63" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L63" s="317" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:256">
       <c r="A64" s="251"/>
       <c r="B64" s="259" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="261" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D64" s="253"/>
       <c r="E64" s="226"/>
@@ -16802,37 +16809,37 @@
         <v>14</v>
       </c>
       <c r="B65" s="236" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C65" s="323" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D65" s="238" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E65" s="239" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F65" s="239" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G65" s="240" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H65" s="258" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I65" s="344" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J65" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K65" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L65" s="239" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M65" s="320"/>
       <c r="N65" s="320"/>
@@ -17082,7 +17089,7 @@
     <row r="66" ht="13.5" spans="1:256">
       <c r="A66" s="235"/>
       <c r="B66" s="248" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C66" s="324"/>
       <c r="D66" s="243"/>
@@ -17859,7 +17866,7 @@
       <c r="A69" s="235"/>
       <c r="B69" s="20"/>
       <c r="C69" s="242" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D69" s="243"/>
       <c r="E69" s="244"/>
@@ -18891,7 +18898,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="329" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B73" s="241"/>
       <c r="C73" s="248"/>
@@ -18907,7 +18914,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="332" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B74" s="248"/>
       <c r="C74" s="333"/>
@@ -18923,7 +18930,7 @@
     </row>
     <row r="75" spans="1:256">
       <c r="A75" s="329" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B75" s="333"/>
       <c r="C75" s="333"/>
@@ -19183,7 +19190,7 @@
     </row>
     <row r="76" spans="1:256">
       <c r="A76" s="329" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B76" s="333"/>
       <c r="C76" s="333"/>
@@ -19444,7 +19451,7 @@
     <row r="77" ht="13.5" spans="1:256">
       <c r="A77" s="334"/>
       <c r="B77" s="335" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C77" s="336"/>
       <c r="D77" s="73"/>
@@ -19703,7 +19710,7 @@
     </row>
     <row r="78" spans="1:256">
       <c r="A78" s="329" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B78" s="333"/>
       <c r="C78" s="333"/>
@@ -19964,7 +19971,7 @@
     <row r="79" ht="13.5" spans="1:256">
       <c r="A79" s="334"/>
       <c r="B79" s="335" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C79" s="336"/>
       <c r="D79" s="73"/>
@@ -20223,7 +20230,7 @@
     </row>
     <row r="80" spans="1:256">
       <c r="A80" s="329" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B80" s="333"/>
       <c r="C80" s="333"/>
@@ -20484,7 +20491,7 @@
     <row r="81" ht="13.5" spans="1:256">
       <c r="A81" s="334"/>
       <c r="B81" s="335" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C81" s="336"/>
       <c r="D81" s="73"/>
@@ -20743,7 +20750,7 @@
     </row>
     <row r="82" spans="1:256">
       <c r="A82" s="329" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B82" s="333"/>
       <c r="C82" s="333"/>
@@ -21003,10 +21010,10 @@
     </row>
     <row r="83" ht="13.5" spans="1:256">
       <c r="A83" s="337" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B83" s="338" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C83" s="339"/>
       <c r="D83" s="339"/>
@@ -21523,7 +21530,7 @@
     </row>
     <row r="85" spans="1:256">
       <c r="A85" s="329" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B85" s="333"/>
       <c r="C85" s="333"/>
@@ -21784,7 +21791,7 @@
     <row r="86" ht="13.5" spans="1:256">
       <c r="A86" s="334"/>
       <c r="B86" s="335" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C86" s="336"/>
       <c r="D86" s="73"/>
@@ -22043,7 +22050,7 @@
     </row>
     <row r="87" spans="1:256">
       <c r="A87" s="329" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B87" s="333"/>
       <c r="C87" s="333"/>
@@ -22304,7 +22311,7 @@
     <row r="88" ht="13.5" spans="1:256">
       <c r="A88" s="334"/>
       <c r="B88" s="335" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C88" s="336"/>
       <c r="D88" s="73"/>
@@ -22563,7 +22570,7 @@
     </row>
     <row r="89" spans="1:256">
       <c r="A89" s="329" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B89" s="333"/>
       <c r="C89" s="333"/>
@@ -22824,7 +22831,7 @@
     <row r="90" ht="13.5" spans="1:256">
       <c r="A90" s="334"/>
       <c r="B90" s="335" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C90" s="336"/>
       <c r="D90" s="73"/>
@@ -23083,7 +23090,7 @@
     </row>
     <row r="91" spans="1:256">
       <c r="A91" s="329" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B91" s="333"/>
       <c r="C91" s="333"/>
@@ -23344,7 +23351,7 @@
     <row r="92" ht="13.5" spans="1:256">
       <c r="A92" s="334"/>
       <c r="B92" s="335" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C92" s="336"/>
       <c r="D92" s="73"/>
@@ -23603,7 +23610,7 @@
     </row>
     <row r="93" ht="13.5" spans="1:256">
       <c r="A93" s="329" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B93" s="241"/>
       <c r="C93" s="241"/>
@@ -23864,7 +23871,7 @@
     <row r="94" ht="13.5" spans="1:256">
       <c r="A94" s="334"/>
       <c r="B94" s="336" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C94" s="336"/>
       <c r="D94" s="340"/>
@@ -24123,7 +24130,7 @@
     </row>
     <row r="95" ht="13.5" spans="1:256">
       <c r="A95" s="341" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B95" s="241"/>
       <c r="C95" s="241"/>
@@ -24384,7 +24391,7 @@
     <row r="96" ht="13.5" spans="1:256">
       <c r="A96" s="334"/>
       <c r="B96" s="335" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C96" s="336"/>
       <c r="D96" s="340"/>
@@ -24643,7 +24650,7 @@
     </row>
     <row r="97" ht="13.5" spans="1:256">
       <c r="A97" s="341" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B97" s="241"/>
       <c r="C97" s="241"/>
@@ -24904,7 +24911,7 @@
     <row r="98" ht="13.5" spans="1:256">
       <c r="A98" s="334"/>
       <c r="B98" s="338" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C98" s="339"/>
       <c r="D98" s="339"/>
@@ -25421,7 +25428,7 @@
     </row>
     <row r="100" ht="13.5" spans="1:256">
       <c r="A100" s="341" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B100" s="241"/>
       <c r="C100" s="208"/>
@@ -25681,10 +25688,10 @@
     </row>
     <row r="101" ht="13.5" spans="1:256">
       <c r="A101" s="334" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B101" s="338" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C101" s="338"/>
       <c r="D101" s="338"/>
@@ -25943,7 +25950,7 @@
     </row>
     <row r="102" ht="13.5" spans="1:256">
       <c r="A102" s="334" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B102" s="338"/>
       <c r="C102" s="338"/>
@@ -26203,7 +26210,7 @@
     </row>
     <row r="103" ht="13.5" spans="1:256">
       <c r="A103" s="341" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B103" s="208"/>
       <c r="C103" s="208"/>
@@ -26463,10 +26470,10 @@
     </row>
     <row r="104" ht="13.5" spans="1:256">
       <c r="A104" s="334" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B104" s="338" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C104" s="338"/>
       <c r="D104" s="338"/>
@@ -26983,7 +26990,7 @@
     </row>
     <row r="106" ht="17.25" spans="1:12">
       <c r="A106" s="342" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B106" s="343"/>
       <c r="C106" s="343"/>
@@ -27129,8 +27136,8 @@
   <sheetPr/>
   <dimension ref="A1:IV233"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11:AG12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -27144,7 +27151,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:35">
       <c r="A1" s="112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -27183,7 +27190,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:35">
       <c r="A2" s="112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -27198,7 +27205,7 @@
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2" s="113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
@@ -27224,7 +27231,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:35">
       <c r="A3" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -27263,7 +27270,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:35">
       <c r="A4" s="113" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -27292,7 +27299,7 @@
       <c r="Z4" s="27"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="158" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AC4" s="27"/>
       <c r="AD4" s="27"/>
@@ -27304,7 +27311,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:35">
       <c r="A5" s="113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -27333,7 +27340,7 @@
       <c r="Z5" s="27"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -27382,7 +27389,7 @@
     </row>
     <row r="7" s="109" customFormat="1" ht="14.25" customHeight="1" spans="1:35">
       <c r="A7" s="88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -27392,10 +27399,10 @@
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="149" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J7" s="149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
@@ -27426,7 +27433,7 @@
     <row r="8" s="109" customFormat="1" ht="14.25" customHeight="1" spans="1:35">
       <c r="A8" s="88"/>
       <c r="B8" s="115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -27436,7 +27443,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -27467,12 +27474,12 @@
     <row r="9" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:35">
       <c r="A9" s="15"/>
       <c r="B9" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
@@ -27486,14 +27493,14 @@
       <c r="O9" s="52"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="152" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R9" s="153"/>
       <c r="S9" s="153"/>
       <c r="T9" s="153"/>
       <c r="U9" s="153"/>
       <c r="V9" s="52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W9" s="52"/>
       <c r="X9" s="52"/>
@@ -27513,7 +27520,7 @@
       <c r="A10" s="116"/>
       <c r="B10" s="55"/>
       <c r="C10" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="52"/>
@@ -27529,7 +27536,7 @@
       <c r="O10" s="117"/>
       <c r="P10" s="55"/>
       <c r="Q10" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
@@ -27553,13 +27560,13 @@
     <row r="11" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:35">
       <c r="A11" s="15"/>
       <c r="B11" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="28"/>
       <c r="F11" s="52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
@@ -27575,14 +27582,14 @@
       <c r="R11" s="52"/>
       <c r="S11" s="28"/>
       <c r="T11" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="28"/>
       <c r="X11" s="28"/>
       <c r="Y11" s="132" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z11" s="132"/>
       <c r="AA11" s="132"/>
@@ -27599,7 +27606,7 @@
       <c r="A12" s="16"/>
       <c r="B12" s="55"/>
       <c r="C12" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="2"/>
@@ -27619,7 +27626,7 @@
       <c r="S12" s="28"/>
       <c r="T12" s="55"/>
       <c r="U12" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V12" s="55"/>
       <c r="W12" s="55"/>
@@ -27675,7 +27682,7 @@
     </row>
     <row r="14" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:36">
       <c r="A14" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -27716,7 +27723,7 @@
     <row r="15" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:40">
       <c r="A15" s="15"/>
       <c r="B15" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -27759,10 +27766,10 @@
     <row r="16" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A16" s="15"/>
       <c r="B16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -27770,10 +27777,10 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -27781,29 +27788,29 @@
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R16" s="28"/>
       <c r="S16" s="28"/>
       <c r="T16" s="28"/>
       <c r="U16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V16" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W16" s="28"/>
       <c r="X16" s="28"/>
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
       <c r="AA16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB16" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
@@ -27821,7 +27828,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="35"/>
       <c r="C17" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -27830,7 +27837,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
@@ -27839,14 +27846,14 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W17" s="27"/>
       <c r="X17" s="27"/>
@@ -27854,7 +27861,7 @@
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
       <c r="AB17" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC17" s="17"/>
       <c r="AD17" s="28"/>
@@ -28088,10 +28095,10 @@
     <row r="18" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:48">
       <c r="A18" s="15"/>
       <c r="B18" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -28099,10 +28106,10 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
@@ -28110,10 +28117,10 @@
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R18" s="28"/>
       <c r="S18" s="35"/>
@@ -28124,7 +28131,7 @@
       <c r="X18" s="52"/>
       <c r="Y18" s="52"/>
       <c r="Z18" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" s="28"/>
       <c r="AB18" s="28"/>
@@ -28152,7 +28159,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="28"/>
       <c r="C19" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -28161,7 +28168,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -28170,7 +28177,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R19" s="27"/>
       <c r="S19" s="28"/>
@@ -28415,7 +28422,7 @@
     <row r="20" s="3" customFormat="1" ht="12.75" customHeight="1" spans="1:48">
       <c r="A20" s="15"/>
       <c r="B20" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -28434,7 +28441,7 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
@@ -28444,17 +28451,17 @@
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
       <c r="AA20" s="159" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB20" s="52"/>
       <c r="AC20" s="52"/>
       <c r="AD20" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE20" s="52"/>
       <c r="AF20" s="52"/>
       <c r="AG20" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH20" s="22"/>
       <c r="AI20" s="107"/>
@@ -28474,7 +28481,7 @@
       <c r="A21" s="15"/>
       <c r="B21" s="27"/>
       <c r="C21" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -28493,7 +28500,7 @@
       <c r="R21" s="117"/>
       <c r="S21" s="27"/>
       <c r="T21" s="154" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U21" s="115"/>
       <c r="V21" s="115"/>
@@ -28505,12 +28512,12 @@
       <c r="AB21" s="117"/>
       <c r="AC21" s="117"/>
       <c r="AD21" s="161" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE21" s="117"/>
       <c r="AF21" s="117"/>
       <c r="AG21" s="167" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH21" s="167"/>
       <c r="AI21" s="168"/>
@@ -28788,7 +28795,7 @@
     </row>
     <row r="23" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:48">
       <c r="A23" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -28797,7 +28804,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
@@ -28842,7 +28849,7 @@
     <row r="24" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:48">
       <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -28855,7 +28862,7 @@
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N24" s="150"/>
       <c r="O24" s="150"/>
@@ -28895,56 +28902,56 @@
     <row r="25" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:48">
       <c r="A25" s="15"/>
       <c r="B25" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R25" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
       <c r="U25" s="28"/>
       <c r="V25" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W25" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X25" s="28"/>
       <c r="Y25" s="28"/>
       <c r="Z25" s="28"/>
       <c r="AA25" s="28"/>
       <c r="AB25" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC25" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AD25" s="28"/>
       <c r="AE25" s="28"/>
@@ -28968,35 +28975,35 @@
       <c r="A26" s="116"/>
       <c r="B26" s="55"/>
       <c r="C26" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
       <c r="H26" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="17"/>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="M26" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N26" s="28"/>
       <c r="O26" s="17"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="46"/>
       <c r="R26" s="46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S26" s="46"/>
       <c r="T26" s="46"/>
       <c r="U26" s="55"/>
       <c r="V26" s="46"/>
       <c r="W26" s="46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X26" s="28"/>
       <c r="Y26" s="46"/>
@@ -29004,7 +29011,7 @@
       <c r="AA26" s="55"/>
       <c r="AB26" s="55"/>
       <c r="AC26" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AD26" s="55"/>
       <c r="AE26" s="55"/>
@@ -29237,55 +29244,55 @@
     <row r="27" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A27" s="15"/>
       <c r="B27" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
       <c r="Q27" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
       <c r="U27" s="28"/>
       <c r="V27" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W27" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X27" s="28"/>
       <c r="Y27" s="28"/>
       <c r="Z27" s="28"/>
       <c r="AA27" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB27" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
@@ -29302,42 +29309,42 @@
       <c r="A28" s="116"/>
       <c r="B28" s="55"/>
       <c r="C28" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="17"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
       <c r="M28" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N28" s="28"/>
       <c r="O28" s="17"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S28" s="28"/>
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
       <c r="V28" s="55"/>
       <c r="W28" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="55"/>
       <c r="Z28" s="55"/>
       <c r="AA28" s="55"/>
       <c r="AB28" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC28" s="55"/>
       <c r="AD28" s="55"/>
@@ -29570,10 +29577,10 @@
     <row r="29" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A29" s="15"/>
       <c r="B29" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -29587,32 +29594,32 @@
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P29" s="28"/>
       <c r="Q29" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
       <c r="U29" s="28"/>
       <c r="V29" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W29" s="28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X29" s="28"/>
       <c r="Y29" s="28"/>
       <c r="Z29" s="28"/>
       <c r="AA29" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB29" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
@@ -29629,7 +29636,7 @@
       <c r="A30" s="116"/>
       <c r="B30" s="55"/>
       <c r="C30" s="46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
@@ -29646,21 +29653,21 @@
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S30" s="28"/>
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
       <c r="V30" s="55"/>
       <c r="W30" s="17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="X30" s="28"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="55"/>
       <c r="AA30" s="55"/>
       <c r="AB30" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC30" s="55"/>
       <c r="AD30" s="55"/>
@@ -29893,46 +29900,46 @@
     <row r="31" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A31" s="15"/>
       <c r="B31" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
       <c r="L31" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
       <c r="Q31" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S31" s="28"/>
       <c r="T31" s="28"/>
       <c r="U31" s="55"/>
       <c r="V31" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W31" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X31" s="28"/>
       <c r="Y31" s="28"/>
@@ -29954,35 +29961,35 @@
       <c r="A32" s="116"/>
       <c r="B32" s="55"/>
       <c r="C32" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
       <c r="H32" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="17"/>
       <c r="K32" s="55"/>
       <c r="L32" s="55"/>
       <c r="M32" s="17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N32" s="28"/>
       <c r="O32" s="17"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
       <c r="R32" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S32" s="28"/>
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
       <c r="V32" s="55"/>
       <c r="W32" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X32" s="28"/>
       <c r="Y32" s="55"/>
@@ -30221,10 +30228,10 @@
     <row r="33" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A33" s="15"/>
       <c r="B33" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -30235,31 +30242,31 @@
       <c r="J33" s="52"/>
       <c r="K33" s="52"/>
       <c r="L33" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O33" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
       <c r="R33" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S33" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T33" s="102"/>
       <c r="U33" s="102"/>
       <c r="V33" s="28"/>
       <c r="W33" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X33" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y33" s="28"/>
       <c r="Z33" s="28"/>
@@ -30270,7 +30277,7 @@
       <c r="AE33" s="52"/>
       <c r="AF33" s="52"/>
       <c r="AG33" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH33" s="28"/>
       <c r="AI33" s="107"/>
@@ -30282,7 +30289,7 @@
       <c r="A34" s="116"/>
       <c r="B34" s="55"/>
       <c r="C34" s="46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -30296,20 +30303,20 @@
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
       <c r="O34" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="28"/>
       <c r="S34" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="T34" s="28"/>
       <c r="U34" s="55"/>
       <c r="V34" s="55"/>
       <c r="W34" s="55"/>
       <c r="X34" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y34" s="28"/>
       <c r="Z34" s="67"/>
@@ -30547,7 +30554,7 @@
     <row r="35" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -30590,28 +30597,28 @@
     <row r="36" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A36" s="15"/>
       <c r="B36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
@@ -30620,10 +30627,10 @@
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
       <c r="T36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U36" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
@@ -30632,10 +30639,10 @@
       <c r="Z36" s="28"/>
       <c r="AA36" s="28"/>
       <c r="AB36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC36" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD36" s="28"/>
       <c r="AE36" s="28"/>
@@ -30652,21 +30659,21 @@
       <c r="A37" s="116"/>
       <c r="B37" s="55"/>
       <c r="C37" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="55"/>
       <c r="G37" s="55"/>
       <c r="H37" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
       <c r="M37" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N37" s="74"/>
       <c r="O37" s="17"/>
@@ -30676,7 +30683,7 @@
       <c r="S37" s="55"/>
       <c r="T37" s="55"/>
       <c r="U37" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -30686,7 +30693,7 @@
       <c r="AA37" s="55"/>
       <c r="AB37" s="28"/>
       <c r="AC37" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AD37" s="55"/>
       <c r="AE37" s="55"/>
@@ -30919,10 +30926,10 @@
     <row r="38" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A38" s="15"/>
       <c r="B38" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -30930,10 +30937,10 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
@@ -30941,40 +30948,40 @@
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
       <c r="P38" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
       <c r="T38" s="28"/>
       <c r="U38" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V38" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W38" s="28"/>
       <c r="X38" s="28"/>
       <c r="Y38" s="28"/>
       <c r="Z38" s="28"/>
       <c r="AA38" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB38" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC38" s="162"/>
       <c r="AD38" s="162" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE38" s="162"/>
       <c r="AF38" s="162"/>
       <c r="AG38" s="28"/>
       <c r="AH38" s="28"/>
       <c r="AI38" s="107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ38" s="28"/>
       <c r="AL38" s="28"/>
@@ -30985,7 +30992,7 @@
       <c r="A39" s="116"/>
       <c r="B39" s="55"/>
       <c r="C39" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
@@ -30994,7 +31001,7 @@
       <c r="H39" s="55"/>
       <c r="I39" s="151"/>
       <c r="J39" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -31003,14 +31010,14 @@
       <c r="O39" s="55"/>
       <c r="P39" s="55"/>
       <c r="Q39" s="17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R39" s="17"/>
       <c r="S39" s="55"/>
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
       <c r="V39" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W39" s="151"/>
       <c r="X39" s="55"/>
@@ -31018,7 +31025,7 @@
       <c r="Z39" s="55"/>
       <c r="AA39" s="151"/>
       <c r="AB39" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AC39" s="17"/>
       <c r="AD39" s="67"/>
@@ -31251,10 +31258,10 @@
     </row>
     <row r="40" s="28" customFormat="1" ht="13.5" customHeight="1" spans="1:35">
       <c r="A40" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB40" s="163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC40" s="163"/>
       <c r="AD40" s="163"/>
@@ -31263,7 +31270,7 @@
     <row r="41" s="28" customFormat="1" customHeight="1" spans="1:35">
       <c r="A41" s="15"/>
       <c r="B41" s="118" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D41" s="119"/>
       <c r="E41" s="119"/>
@@ -31290,7 +31297,7 @@
       <c r="Z41" s="119"/>
       <c r="AA41" s="119"/>
       <c r="AB41" s="164" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AC41" s="165"/>
       <c r="AD41" s="165"/>
@@ -31301,7 +31308,7 @@
     <row r="42" s="28" customFormat="1" customHeight="1" spans="1:38">
       <c r="A42" s="15"/>
       <c r="B42" s="118" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C42" s="119"/>
       <c r="D42" s="119"/>
@@ -31342,7 +31349,7 @@
     <row r="43" s="28" customFormat="1" ht="12.75" customHeight="1" spans="1:35">
       <c r="A43" s="15"/>
       <c r="B43" s="57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
@@ -31368,7 +31375,7 @@
     <row r="44" s="28" customFormat="1" customHeight="1" spans="1:35">
       <c r="A44" s="15"/>
       <c r="B44" s="27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N44" s="117"/>
       <c r="O44" s="117"/>
@@ -31398,13 +31405,13 @@
     </row>
     <row r="46" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:40">
       <c r="A46" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
@@ -31444,15 +31451,15 @@
     </row>
     <row r="47" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A47" s="120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47" s="121"/>
       <c r="C47" s="122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="121"/>
       <c r="E47" s="120" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F47" s="121"/>
       <c r="G47" s="121"/>
@@ -31467,15 +31474,15 @@
       <c r="P47" s="121"/>
       <c r="Q47" s="155"/>
       <c r="R47" s="121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S47" s="156"/>
       <c r="T47" s="121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U47" s="121"/>
       <c r="V47" s="120" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="W47" s="121"/>
       <c r="X47" s="121"/>
@@ -31498,15 +31505,15 @@
     </row>
     <row r="48" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A48" s="123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" s="124"/>
       <c r="C48" s="125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48" s="126"/>
       <c r="E48" s="123" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F48" s="127"/>
       <c r="G48" s="127"/>
@@ -31521,15 +31528,15 @@
       <c r="P48" s="127"/>
       <c r="Q48" s="126"/>
       <c r="R48" s="123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S48" s="124"/>
       <c r="T48" s="125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U48" s="126"/>
       <c r="V48" s="123" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W48" s="127"/>
       <c r="X48" s="127"/>
@@ -31846,7 +31853,7 @@
     </row>
     <row r="56" s="109" customFormat="1" ht="14.25" customHeight="1" spans="1:40">
       <c r="A56" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -31864,7 +31871,7 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
       <c r="Q56" s="157" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R56" s="27"/>
       <c r="S56" s="28"/>
@@ -31893,11 +31900,13 @@
     <row r="57" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A57" s="15"/>
       <c r="B57" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
-      <c r="E57" s="52"/>
+      <c r="E57" s="52" t="s">
+        <v>13</v>
+      </c>
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
       <c r="H57" s="52"/>
@@ -31911,7 +31920,7 @@
       <c r="P57" s="52"/>
       <c r="Q57" s="28"/>
       <c r="R57" s="22" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S57" s="22"/>
       <c r="T57" s="22"/>
@@ -31940,7 +31949,7 @@
       <c r="A58" s="15"/>
       <c r="B58" s="28"/>
       <c r="C58" s="147" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="117"/>
@@ -31958,7 +31967,7 @@
       <c r="Q58" s="39"/>
       <c r="R58" s="39"/>
       <c r="S58" s="39" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T58" s="28"/>
       <c r="U58" s="39"/>
@@ -32201,7 +32210,7 @@
     <row r="59" s="3" customFormat="1" ht="12.75" customHeight="1" spans="1:40">
       <c r="A59" s="15"/>
       <c r="B59" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
@@ -32244,7 +32253,7 @@
       <c r="A60" s="15"/>
       <c r="B60" s="28"/>
       <c r="C60" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
@@ -32326,7 +32335,7 @@
       <c r="A62" s="15"/>
       <c r="B62" s="28"/>
       <c r="C62" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
@@ -32344,7 +32353,7 @@
       <c r="Q62" s="28"/>
       <c r="R62" s="28"/>
       <c r="S62" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T62" s="22"/>
       <c r="U62" s="22"/>
@@ -32370,7 +32379,7 @@
       <c r="A63" s="15"/>
       <c r="B63" s="28"/>
       <c r="C63" s="147" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
@@ -32388,7 +32397,7 @@
       <c r="Q63" s="39"/>
       <c r="R63" s="39"/>
       <c r="S63" s="39" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T63" s="39"/>
       <c r="U63" s="39"/>
@@ -32673,7 +32682,7 @@
     <row r="65" s="109" customFormat="1" ht="14.25" customHeight="1" spans="1:40">
       <c r="A65" s="15"/>
       <c r="B65" s="38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -32693,7 +32702,7 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
@@ -32718,7 +32727,7 @@
     <row r="66" s="109" customFormat="1" ht="14.25" customHeight="1" spans="1:40">
       <c r="A66" s="15"/>
       <c r="B66" s="38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -32738,7 +32747,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
@@ -32831,17 +32840,17 @@
       <c r="Y68" s="52"/>
       <c r="Z68" s="52"/>
       <c r="AA68" s="185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB68" s="69"/>
       <c r="AC68" s="69"/>
       <c r="AD68" s="57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE68" s="69"/>
       <c r="AF68" s="69"/>
       <c r="AG68" s="57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH68" s="57"/>
       <c r="AI68" s="107"/>
@@ -32879,17 +32888,17 @@
       <c r="Y69" s="172"/>
       <c r="Z69" s="172"/>
       <c r="AA69" s="186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB69" s="70"/>
       <c r="AC69" s="70"/>
       <c r="AD69" s="186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE69" s="70"/>
       <c r="AF69" s="70"/>
       <c r="AG69" s="186" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH69" s="188"/>
       <c r="AI69" s="107"/>
@@ -32943,11 +32952,11 @@
     </row>
     <row r="71" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:37">
       <c r="A71" s="173" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B71" s="174"/>
       <c r="C71" s="175" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D71" s="176"/>
       <c r="E71" s="175"/>
@@ -32986,7 +32995,7 @@
     </row>
     <row r="72" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:37">
       <c r="A72" s="177" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B72" s="178"/>
       <c r="C72" s="178"/>
@@ -33027,7 +33036,7 @@
     </row>
     <row r="73" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:256">
       <c r="A73" s="179" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B73" s="180"/>
       <c r="C73" s="180"/>
@@ -33545,7 +33554,7 @@
     </row>
     <row r="75" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:36">
       <c r="A75" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -33586,7 +33595,7 @@
     <row r="76" s="109" customFormat="1" customHeight="1" spans="1:35">
       <c r="A76" s="15"/>
       <c r="B76" s="27" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
@@ -33625,7 +33634,7 @@
     <row r="77" s="109" customFormat="1" ht="12.75" customHeight="1" spans="1:37">
       <c r="A77" s="15"/>
       <c r="B77" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -33639,7 +33648,7 @@
       <c r="L77" s="24"/>
       <c r="M77" s="28"/>
       <c r="N77" s="22" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
@@ -33669,7 +33678,7 @@
       <c r="A78" s="88"/>
       <c r="B78" s="22"/>
       <c r="C78" s="115" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="25"/>
@@ -33683,7 +33692,7 @@
       <c r="M78" s="28"/>
       <c r="N78" s="22"/>
       <c r="O78" s="115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P78" s="28"/>
       <c r="Q78" s="22"/>
@@ -33964,7 +33973,7 @@
     <row r="80" s="109" customFormat="1" ht="13.5" customHeight="1" spans="1:37">
       <c r="A80" s="15"/>
       <c r="B80" s="28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -33987,7 +33996,7 @@
       <c r="U80" s="28"/>
       <c r="V80" s="28"/>
       <c r="W80" s="54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X80" s="54"/>
       <c r="Y80" s="54"/>
@@ -34008,7 +34017,7 @@
       <c r="A81" s="15"/>
       <c r="B81" s="28"/>
       <c r="C81" s="115" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -34030,7 +34039,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="27"/>
       <c r="W81" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X81" s="28"/>
       <c r="Y81" s="28"/>
@@ -35006,7 +35015,7 @@
   <sheetPr/>
   <dimension ref="A1:AT204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G40" sqref="G40:AG41"/>
     </sheetView>
   </sheetViews>
@@ -35017,7 +35026,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -35027,7 +35036,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:34">
       <c r="A2" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -35041,7 +35050,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -35054,7 +35063,7 @@
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Z2" s="65" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA2" s="65"/>
       <c r="AB2" s="65"/>
@@ -35065,9 +35074,9 @@
       <c r="AG2" s="65"/>
       <c r="AH2" s="65"/>
     </row>
-    <row r="3" ht="13.5" spans="1:28">
+    <row r="3" spans="1:28">
       <c r="A3" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -35096,12 +35105,12 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="1:34">
       <c r="A4" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -35175,7 +35184,7 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A6" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -35214,7 +35223,7 @@
     <row r="7" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A7" s="21"/>
       <c r="B7" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -35252,7 +35261,7 @@
     <row r="8" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A8" s="21"/>
       <c r="B8" s="57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
@@ -35269,7 +35278,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="97" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R8" s="97"/>
       <c r="S8" s="97"/>
@@ -35293,7 +35302,7 @@
       <c r="A9" s="16"/>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="25"/>
@@ -35310,7 +35319,7 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
@@ -35367,13 +35376,13 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="15" customHeight="1" spans="1:35">
       <c r="A11" s="88" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -35409,7 +35418,7 @@
     <row r="12" s="5" customFormat="1" ht="13.5" customHeight="1" spans="1:35">
       <c r="A12" s="89"/>
       <c r="B12" s="90" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
@@ -35559,12 +35568,12 @@
     <row r="16" s="3" customFormat="1" ht="15" customHeight="1" spans="1:36">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -35579,7 +35588,7 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S16" s="53"/>
       <c r="T16" s="53"/>
@@ -35587,7 +35596,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y16" s="24"/>
       <c r="Z16" s="24"/>
@@ -35606,7 +35615,7 @@
       <c r="A17" s="16"/>
       <c r="B17" s="2"/>
       <c r="C17" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="25"/>
@@ -35623,7 +35632,7 @@
       <c r="P17" s="25"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -35686,13 +35695,13 @@
     <row r="19" s="3" customFormat="1" ht="15" customHeight="1" spans="1:36">
       <c r="A19" s="21"/>
       <c r="B19" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="91"/>
       <c r="E19" s="1"/>
       <c r="F19" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="1"/>
@@ -35729,62 +35738,62 @@
       <c r="A20" s="21"/>
       <c r="B20" s="1"/>
       <c r="C20" s="29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="1"/>
       <c r="G20" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S20" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
       <c r="W20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X20" s="28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y20" s="28"/>
       <c r="Z20" s="28"/>
       <c r="AA20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB20" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF20" s="28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG20" s="28"/>
       <c r="AH20" s="76"/>
@@ -35795,7 +35804,7 @@
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="17" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -35803,13 +35812,13 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
@@ -35817,26 +35826,26 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
       <c r="AF21" s="17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG21" s="33"/>
       <c r="AH21" s="79"/>
@@ -35850,28 +35859,28 @@
       <c r="F22" s="1"/>
       <c r="G22" s="92"/>
       <c r="H22" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
       <c r="M22" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T22" s="28"/>
       <c r="U22" s="28"/>
@@ -35880,10 +35889,10 @@
       <c r="X22" s="52"/>
       <c r="Y22" s="52"/>
       <c r="Z22" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" s="28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -35905,20 +35914,20 @@
       <c r="G23" s="34"/>
       <c r="H23" s="33"/>
       <c r="I23" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S23" s="33"/>
       <c r="T23" s="17"/>
@@ -35941,46 +35950,46 @@
       <c r="A24" s="21"/>
       <c r="B24" s="1"/>
       <c r="C24" s="29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="1"/>
       <c r="G24" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
       <c r="V24" s="1"/>
       <c r="W24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X24" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y24" s="28"/>
       <c r="Z24" s="28"/>
@@ -35990,10 +35999,10 @@
       <c r="AD24" s="52"/>
       <c r="AE24" s="52"/>
       <c r="AF24" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH24" s="76"/>
       <c r="AI24" s="1"/>
@@ -36003,7 +36012,7 @@
       <c r="A25" s="32"/>
       <c r="B25" s="33"/>
       <c r="C25" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -36011,28 +36020,28 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
       <c r="W25" s="33"/>
       <c r="X25" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
@@ -36049,46 +36058,46 @@
       <c r="A26" s="21"/>
       <c r="B26" s="1"/>
       <c r="C26" s="54" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="1"/>
       <c r="G26" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T26" s="28"/>
       <c r="U26" s="28"/>
       <c r="V26" s="1"/>
       <c r="W26" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X26" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
@@ -36098,10 +36107,10 @@
       <c r="AD26" s="52"/>
       <c r="AE26" s="52"/>
       <c r="AF26" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH26" s="76"/>
       <c r="AI26" s="1"/>
@@ -36111,7 +36120,7 @@
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -36119,28 +36128,28 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
       <c r="W27" s="33"/>
       <c r="X27" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
@@ -36157,28 +36166,28 @@
       <c r="A28" s="21"/>
       <c r="B28" s="1"/>
       <c r="C28" s="29" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="1"/>
       <c r="G28" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
       <c r="M28" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
@@ -36189,10 +36198,10 @@
       <c r="U28" s="52"/>
       <c r="V28" s="52"/>
       <c r="W28" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X28" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y28" s="28"/>
       <c r="Z28" s="1"/>
@@ -36211,7 +36220,7 @@
       <c r="A29" s="32"/>
       <c r="B29" s="33"/>
       <c r="C29" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -36219,14 +36228,14 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O29" s="17"/>
       <c r="P29" s="33"/>
@@ -36253,46 +36262,46 @@
       <c r="A30" s="21"/>
       <c r="B30" s="1"/>
       <c r="C30" s="29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="1"/>
       <c r="G30" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="55"/>
       <c r="M30" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
       <c r="R30" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T30" s="28"/>
       <c r="U30" s="28"/>
       <c r="V30" s="28"/>
       <c r="W30" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X30" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y30" s="28"/>
       <c r="Z30" s="28"/>
@@ -36302,10 +36311,10 @@
       <c r="AD30" s="52"/>
       <c r="AE30" s="52"/>
       <c r="AF30" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG30" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH30" s="76"/>
       <c r="AI30" s="1"/>
@@ -36315,7 +36324,7 @@
       <c r="A31" s="16"/>
       <c r="B31" s="2"/>
       <c r="C31" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -36323,28 +36332,28 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
       <c r="W31" s="17"/>
       <c r="X31" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
@@ -36363,46 +36372,46 @@
       <c r="A32" s="21"/>
       <c r="B32" s="1"/>
       <c r="C32" s="29" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="1"/>
       <c r="G32" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
       <c r="M32" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28"/>
       <c r="R32" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S32" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T32" s="28"/>
       <c r="U32" s="28"/>
       <c r="V32" s="28"/>
       <c r="W32" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X32" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y32" s="28"/>
       <c r="Z32" s="28"/>
@@ -36412,10 +36421,10 @@
       <c r="AD32" s="52"/>
       <c r="AE32" s="52"/>
       <c r="AF32" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH32" s="76"/>
       <c r="AI32" s="1"/>
@@ -36425,7 +36434,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="33"/>
       <c r="C33" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -36433,28 +36442,28 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
@@ -36471,19 +36480,19 @@
       <c r="A34" s="21"/>
       <c r="B34" s="1"/>
       <c r="C34" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
@@ -36494,10 +36503,10 @@
       <c r="P34" s="28"/>
       <c r="Q34" s="28"/>
       <c r="R34" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="T34" s="28"/>
       <c r="U34" s="28"/>
@@ -36505,19 +36514,19 @@
       <c r="W34" s="28"/>
       <c r="X34" s="28"/>
       <c r="Y34" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z34" s="28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="28"/>
       <c r="AD34" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
@@ -36530,14 +36539,14 @@
       <c r="B35" s="33"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -36549,7 +36558,7 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
@@ -36558,14 +36567,14 @@
       <c r="X35" s="17"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -36575,48 +36584,48 @@
       <c r="A36" s="21"/>
       <c r="B36" s="1"/>
       <c r="C36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
       <c r="M36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="28"/>
       <c r="S36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T36" s="28" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="U36" s="28"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z36" s="28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -36634,21 +36643,21 @@
       <c r="B37" s="2"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -36656,7 +36665,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
@@ -36664,7 +36673,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -36681,10 +36690,10 @@
       <c r="A38" s="21"/>
       <c r="B38" s="1"/>
       <c r="C38" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -36695,20 +36704,20 @@
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
       <c r="M38" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T38" s="28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U38" s="28"/>
       <c r="V38" s="28"/>
@@ -36722,7 +36731,7 @@
       <c r="AD38" s="52"/>
       <c r="AE38" s="52"/>
       <c r="AF38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="76"/>
@@ -36734,7 +36743,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -36746,7 +36755,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
@@ -36754,7 +36763,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="17"/>
       <c r="T39" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U39" s="17"/>
       <c r="V39" s="2"/>
@@ -36776,14 +36785,14 @@
     <row r="40" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A40" s="21"/>
       <c r="B40" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -36817,7 +36826,7 @@
       <c r="A41" s="21"/>
       <c r="B41" s="1"/>
       <c r="C41" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -36855,13 +36864,13 @@
       <c r="A42" s="21"/>
       <c r="B42" s="1"/>
       <c r="C42" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="1"/>
       <c r="G42" s="36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
@@ -36895,7 +36904,7 @@
       <c r="A43" s="21"/>
       <c r="B43" s="4"/>
       <c r="C43" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -36932,13 +36941,13 @@
     <row r="44" s="3" customFormat="1" ht="15" customHeight="1" spans="1:42">
       <c r="A44" s="21"/>
       <c r="B44" s="28" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="24" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
@@ -36949,7 +36958,7 @@
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
       <c r="O44" s="28" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -36978,7 +36987,7 @@
       <c r="A45" s="21"/>
       <c r="B45" s="4"/>
       <c r="C45" s="17" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -36992,7 +37001,7 @@
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
       <c r="O45" s="27" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -37053,7 +37062,7 @@
     <row r="47" ht="15" customHeight="1" spans="1:36">
       <c r="A47" s="26"/>
       <c r="B47" s="28" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -37077,7 +37086,7 @@
       <c r="T47" s="24"/>
       <c r="U47" s="24"/>
       <c r="V47" s="28" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
@@ -37098,7 +37107,7 @@
       <c r="A48" s="32"/>
       <c r="B48" s="2"/>
       <c r="C48" s="17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -37119,7 +37128,7 @@
       <c r="T48" s="25"/>
       <c r="U48" s="25"/>
       <c r="V48" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -37173,7 +37182,7 @@
     <row r="50" s="3" customFormat="1" ht="15" customHeight="1" spans="1:36">
       <c r="A50" s="21"/>
       <c r="B50" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -37193,7 +37202,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="28" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -37220,7 +37229,7 @@
       <c r="A51" s="32"/>
       <c r="B51" s="2"/>
       <c r="C51" s="17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -37235,12 +37244,12 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
       <c r="P51" s="96" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q51" s="17"/>
       <c r="R51" s="17"/>
       <c r="S51" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
@@ -37256,13 +37265,13 @@
       <c r="AE51" s="25"/>
       <c r="AF51" s="25"/>
       <c r="AG51" s="55" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AH51" s="79"/>
     </row>
     <row r="52" s="3" customFormat="1" ht="15" customHeight="1" spans="1:40">
       <c r="A52" s="15" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -37270,7 +37279,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -37306,7 +37315,7 @@
     <row r="53" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:36">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -37383,7 +37392,7 @@
     </row>
     <row r="55" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A55" s="93" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B55" s="68"/>
       <c r="C55" s="68"/>
@@ -37398,7 +37407,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
@@ -37408,28 +37417,28 @@
       <c r="T55" s="24"/>
       <c r="U55" s="24"/>
       <c r="V55" s="35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="W55" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X55" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y55" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z55" s="33"/>
       <c r="AA55" s="55"/>
       <c r="AB55" s="31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AC55" s="55" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AD55" s="34"/>
       <c r="AE55" s="55" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
@@ -37438,7 +37447,7 @@
     <row r="56" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:36">
       <c r="A56" s="16"/>
       <c r="B56" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -37460,18 +37469,18 @@
       <c r="T56" s="25"/>
       <c r="U56" s="25"/>
       <c r="V56" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="W56" s="17"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="17" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z56" s="17"/>
       <c r="AA56" s="17"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -37521,7 +37530,7 @@
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:36">
       <c r="A58" s="15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -37536,11 +37545,11 @@
       <c r="L58" s="94"/>
       <c r="M58" s="94"/>
       <c r="N58" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q58" s="23"/>
       <c r="R58" s="1"/>
@@ -37566,7 +37575,7 @@
     <row r="59" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:36">
       <c r="A59" s="16"/>
       <c r="B59" s="17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -37580,12 +37589,12 @@
       <c r="L59" s="95"/>
       <c r="M59" s="95"/>
       <c r="N59" s="44" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -37609,14 +37618,14 @@
     </row>
     <row r="60" s="3" customFormat="1" ht="15" customHeight="1" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="17" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -37651,10 +37660,10 @@
     <row r="61" s="3" customFormat="1" ht="15" customHeight="1" spans="1:35">
       <c r="A61" s="21"/>
       <c r="B61" s="31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
@@ -37664,20 +37673,20 @@
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
       <c r="K61" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L61" s="28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
       <c r="O61" s="28"/>
       <c r="P61" s="28"/>
       <c r="Q61" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R61" s="28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" s="28"/>
@@ -37687,10 +37696,10 @@
       <c r="X61" s="28"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA61" s="28" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AB61" s="28"/>
       <c r="AC61" s="28"/>
@@ -37705,7 +37714,7 @@
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
@@ -37716,7 +37725,7 @@
       <c r="J62" s="17"/>
       <c r="K62" s="2"/>
       <c r="L62" s="17" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
@@ -37724,7 +37733,7 @@
       <c r="P62" s="17"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="S62" s="17"/>
       <c r="T62" s="2"/>
@@ -37735,7 +37744,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="17" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
@@ -37749,10 +37758,10 @@
     <row r="63" s="3" customFormat="1" ht="15" customHeight="1" spans="1:35">
       <c r="A63" s="21"/>
       <c r="B63" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
@@ -37762,20 +37771,20 @@
       <c r="I63" s="28"/>
       <c r="J63" s="28"/>
       <c r="K63" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L63" s="28" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
       <c r="O63" s="28"/>
       <c r="P63" s="28"/>
       <c r="Q63" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R63" s="28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="S63" s="28"/>
       <c r="T63" s="28"/>
@@ -37785,10 +37794,10 @@
       <c r="X63" s="28"/>
       <c r="Y63" s="28"/>
       <c r="Z63" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA63" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AB63" s="102"/>
       <c r="AC63" s="102"/>
@@ -37803,7 +37812,7 @@
       <c r="A64" s="16"/>
       <c r="B64" s="2"/>
       <c r="C64" s="17" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
@@ -37814,7 +37823,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
       <c r="L64" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -37822,7 +37831,7 @@
       <c r="P64" s="17"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S64" s="17"/>
       <c r="T64" s="2"/>
@@ -37833,7 +37842,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB64" s="103"/>
       <c r="AC64" s="103"/>
@@ -37847,10 +37856,10 @@
     <row r="65" s="3" customFormat="1" ht="15" customHeight="1" spans="1:37">
       <c r="A65" s="21"/>
       <c r="B65" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
@@ -37866,10 +37875,10 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
       <c r="Q65" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R65" s="28" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="S65" s="28"/>
       <c r="T65" s="28"/>
@@ -37895,7 +37904,7 @@
       <c r="A66" s="16"/>
       <c r="B66" s="2"/>
       <c r="C66" s="17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
@@ -37912,7 +37921,7 @@
       <c r="P66" s="17"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S66" s="17"/>
       <c r="T66" s="17"/>
@@ -37937,10 +37946,10 @@
     <row r="67" s="3" customFormat="1" ht="15" customHeight="1" spans="1:37">
       <c r="A67" s="21"/>
       <c r="B67" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
@@ -37950,20 +37959,20 @@
       <c r="I67" s="28"/>
       <c r="J67" s="28"/>
       <c r="K67" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L67" s="28" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
       <c r="Q67" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R67" s="28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S67" s="28"/>
       <c r="T67" s="28"/>
@@ -37972,10 +37981,10 @@
       <c r="W67" s="28"/>
       <c r="X67" s="28"/>
       <c r="Y67" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z67" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AA67" s="28"/>
       <c r="AB67" s="28"/>
@@ -37993,7 +38002,7 @@
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
@@ -38004,7 +38013,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
@@ -38012,7 +38021,7 @@
       <c r="P68" s="17"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="S68" s="17"/>
       <c r="T68" s="2"/>
@@ -38022,7 +38031,7 @@
       <c r="X68" s="17"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA68" s="17"/>
       <c r="AB68" s="2"/>
@@ -38039,10 +38048,10 @@
     <row r="69" s="3" customFormat="1" ht="15" customHeight="1" spans="1:37">
       <c r="A69" s="21"/>
       <c r="B69" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
@@ -38052,20 +38061,20 @@
       <c r="I69" s="28"/>
       <c r="J69" s="28"/>
       <c r="K69" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L69" s="28" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M69" s="28"/>
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
       <c r="P69" s="28"/>
       <c r="Q69" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S69" s="28"/>
       <c r="T69" s="28"/>
@@ -38074,10 +38083,10 @@
       <c r="W69" s="28"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z69" s="28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA69" s="28"/>
       <c r="AB69" s="28"/>
@@ -38087,7 +38096,7 @@
       <c r="AF69" s="52"/>
       <c r="AG69" s="52"/>
       <c r="AH69" s="107" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
@@ -38097,7 +38106,7 @@
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
@@ -38108,7 +38117,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -38116,7 +38125,7 @@
       <c r="P70" s="17"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="17" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="S70" s="17"/>
       <c r="T70" s="2"/>
@@ -38126,7 +38135,7 @@
       <c r="X70" s="17"/>
       <c r="Y70" s="17"/>
       <c r="Z70" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA70" s="2"/>
       <c r="AB70" s="67"/>
@@ -38806,7 +38815,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:35">
       <c r="A1" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -38817,7 +38826,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:35">
       <c r="A2" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -38831,7 +38840,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -38845,7 +38854,7 @@
       <c r="X2" s="10"/>
       <c r="Z2" s="10"/>
       <c r="AA2" s="65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB2" s="65"/>
       <c r="AC2" s="65"/>
@@ -38858,7 +38867,7 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:35">
       <c r="A3" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -38887,13 +38896,13 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AI3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:35">
       <c r="A4" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -38969,24 +38978,24 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A6" s="15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AH6" s="76"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AH7" s="77"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A8" s="16"/>
       <c r="B8" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AH8" s="77"/>
     </row>
@@ -38994,14 +39003,14 @@
       <c r="A9" s="16"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AH9" s="77"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="15" customHeight="1" spans="1:35">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -39018,7 +39027,7 @@
       <c r="O10" s="24"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R10" s="53"/>
       <c r="S10" s="53"/>
@@ -39042,7 +39051,7 @@
     <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A11" s="16"/>
       <c r="C11" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -39056,7 +39065,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="Q11" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
@@ -39104,14 +39113,14 @@
     <row r="13" s="3" customFormat="1" ht="15" customHeight="1" spans="1:36">
       <c r="A13" s="21"/>
       <c r="B13" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -39147,62 +39156,62 @@
       <c r="A14" s="21"/>
       <c r="B14" s="1"/>
       <c r="C14" s="29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="1"/>
       <c r="G14" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="M14" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T14" s="28"/>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
       <c r="W14" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X14" s="28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
       <c r="AA14" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB14" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG14" s="28"/>
       <c r="AH14" s="76"/>
@@ -39213,7 +39222,7 @@
       <c r="A15" s="32"/>
       <c r="B15" s="33"/>
       <c r="C15" s="17" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -39221,40 +39230,40 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="33"/>
       <c r="N15" s="17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="17"/>
       <c r="AF15" s="17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG15" s="33"/>
       <c r="AH15" s="79"/>
@@ -39268,28 +39277,28 @@
       <c r="F16" s="1"/>
       <c r="G16" s="30"/>
       <c r="H16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
@@ -39298,10 +39307,10 @@
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
       <c r="Z16" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" s="28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
@@ -39323,20 +39332,20 @@
       <c r="G17" s="34"/>
       <c r="H17" s="33"/>
       <c r="I17" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="17"/>
@@ -39359,45 +39368,45 @@
       <c r="A18" s="21"/>
       <c r="B18" s="1"/>
       <c r="C18" s="29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="1"/>
       <c r="G18" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
       <c r="M18" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T18" s="28"/>
       <c r="U18" s="28"/>
       <c r="V18" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="28"/>
@@ -39408,10 +39417,10 @@
       <c r="AD18" s="52"/>
       <c r="AE18" s="52"/>
       <c r="AF18" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG18" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH18" s="76"/>
       <c r="AI18" s="1"/>
@@ -39421,7 +39430,7 @@
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
       <c r="C19" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -39429,27 +39438,27 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="33"/>
       <c r="S19" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
@@ -39468,45 +39477,45 @@
       <c r="A20" s="21"/>
       <c r="B20" s="1"/>
       <c r="C20" s="35" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="1"/>
       <c r="G20" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S20" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
       <c r="V20" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W20" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X20" s="28"/>
       <c r="Y20" s="28"/>
@@ -39517,10 +39526,10 @@
       <c r="AD20" s="52"/>
       <c r="AE20" s="52"/>
       <c r="AF20" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH20" s="76"/>
       <c r="AI20" s="1"/>
@@ -39530,7 +39539,7 @@
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -39538,28 +39547,28 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
       <c r="W21" s="33"/>
       <c r="X21" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
@@ -39576,28 +39585,28 @@
       <c r="A22" s="21"/>
       <c r="B22" s="1"/>
       <c r="C22" s="29" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="28"/>
       <c r="G22" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
       <c r="M22" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
@@ -39608,10 +39617,10 @@
       <c r="U22" s="52"/>
       <c r="V22" s="52"/>
       <c r="W22" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y22" s="28"/>
       <c r="Z22" s="1"/>
@@ -39630,7 +39639,7 @@
       <c r="A23" s="32"/>
       <c r="B23" s="33"/>
       <c r="C23" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -39638,14 +39647,14 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O23" s="17"/>
       <c r="P23" s="33"/>
@@ -39672,46 +39681,46 @@
       <c r="A24" s="21"/>
       <c r="B24" s="1"/>
       <c r="C24" s="29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="1"/>
       <c r="G24" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
       <c r="V24" s="55"/>
       <c r="W24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X24" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y24" s="28"/>
       <c r="Z24" s="28"/>
@@ -39721,10 +39730,10 @@
       <c r="AD24" s="52"/>
       <c r="AE24" s="52"/>
       <c r="AF24" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH24" s="76"/>
       <c r="AI24" s="1"/>
@@ -39734,7 +39743,7 @@
       <c r="A25" s="16"/>
       <c r="B25" s="2"/>
       <c r="C25" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -39742,28 +39751,28 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
       <c r="X25" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
@@ -39782,46 +39791,46 @@
       <c r="A26" s="21"/>
       <c r="B26" s="1"/>
       <c r="C26" s="29" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="1"/>
       <c r="G26" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T26" s="28"/>
       <c r="U26" s="28"/>
       <c r="V26" s="28"/>
       <c r="W26" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X26" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
@@ -39831,10 +39840,10 @@
       <c r="AD26" s="52"/>
       <c r="AE26" s="52"/>
       <c r="AF26" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" s="54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH26" s="76"/>
       <c r="AI26" s="1"/>
@@ -39844,7 +39853,7 @@
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -39852,28 +39861,28 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
       <c r="X27" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
@@ -39890,19 +39899,19 @@
       <c r="A28" s="21"/>
       <c r="B28" s="1"/>
       <c r="C28" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
@@ -39913,27 +39922,27 @@
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
       <c r="R28" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T28" s="28"/>
       <c r="U28" s="28"/>
       <c r="V28" s="28"/>
       <c r="W28" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X28" s="28" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y28" s="28"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -39949,14 +39958,14 @@
       <c r="B29" s="33"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
@@ -39968,20 +39977,20 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
       <c r="X29" s="17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -39994,37 +40003,37 @@
       <c r="A30" s="21"/>
       <c r="B30" s="1"/>
       <c r="C30" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
       <c r="R30" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T30" s="28"/>
       <c r="U30" s="28"/>
@@ -40049,28 +40058,28 @@
       <c r="B31" s="4"/>
       <c r="C31" s="27"/>
       <c r="D31" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="2"/>
       <c r="N31" s="17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="4"/>
@@ -40094,19 +40103,19 @@
       <c r="A32" s="21"/>
       <c r="B32" s="1"/>
       <c r="C32" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
@@ -40125,7 +40134,7 @@
       <c r="X32" s="52"/>
       <c r="Y32" s="52"/>
       <c r="Z32" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -40143,14 +40152,14 @@
       <c r="B33" s="4"/>
       <c r="C33" s="27"/>
       <c r="D33" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -40183,7 +40192,7 @@
     <row r="34" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A34" s="21"/>
       <c r="B34" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -40222,7 +40231,7 @@
       <c r="A35" s="21"/>
       <c r="B35" s="1"/>
       <c r="C35" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -40260,7 +40269,7 @@
       <c r="A36" s="21"/>
       <c r="B36" s="1"/>
       <c r="C36" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -40298,7 +40307,7 @@
       <c r="A37" s="26"/>
       <c r="B37" s="4"/>
       <c r="C37" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -40375,7 +40384,7 @@
     <row r="39" s="3" customFormat="1" ht="15" customHeight="1" spans="1:42">
       <c r="A39" s="21"/>
       <c r="B39" s="28" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -40392,7 +40401,7 @@
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="28" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -40419,7 +40428,7 @@
       <c r="A40" s="21"/>
       <c r="B40" s="4"/>
       <c r="C40" s="17" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -40435,7 +40444,7 @@
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="56" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
@@ -40496,7 +40505,7 @@
     <row r="42" ht="15" customHeight="1" spans="1:36">
       <c r="A42" s="26"/>
       <c r="B42" s="28" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -40519,7 +40528,7 @@
       <c r="U42" s="24"/>
       <c r="V42" s="24"/>
       <c r="W42" s="28" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
@@ -40539,7 +40548,7 @@
       <c r="A43" s="26"/>
       <c r="B43" s="4"/>
       <c r="C43" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -40561,7 +40570,7 @@
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="4"/>
@@ -40800,7 +40809,7 @@
     <row r="44" s="3" customFormat="1" ht="15" customHeight="1" spans="1:36">
       <c r="A44" s="21"/>
       <c r="B44" s="22" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -40841,7 +40850,7 @@
       <c r="A45" s="32"/>
       <c r="B45" s="37"/>
       <c r="C45" s="17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -41138,7 +41147,7 @@
     <row r="47" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A47" s="21"/>
       <c r="B47" s="38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -41155,7 +41164,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="27" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
@@ -41178,7 +41187,7 @@
     <row r="48" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A48" s="21"/>
       <c r="B48" s="38" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -41216,7 +41225,7 @@
     <row r="49" s="3" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -41274,24 +41283,24 @@
       <c r="T50" s="40"/>
       <c r="U50" s="57"/>
       <c r="V50" s="57" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="W50" s="57"/>
       <c r="X50" s="24"/>
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
       <c r="AA50" s="57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB50" s="69"/>
       <c r="AC50" s="69"/>
       <c r="AD50" s="57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE50" s="69"/>
       <c r="AF50" s="69"/>
       <c r="AG50" s="57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH50" s="76"/>
     </row>
@@ -41318,24 +41327,24 @@
       <c r="T51" s="41"/>
       <c r="U51" s="58"/>
       <c r="V51" s="59" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="W51" s="58"/>
       <c r="X51" s="60"/>
       <c r="Y51" s="60"/>
       <c r="Z51" s="60"/>
       <c r="AA51" s="59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB51" s="70"/>
       <c r="AC51" s="70"/>
       <c r="AD51" s="71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE51" s="70"/>
       <c r="AF51" s="70"/>
       <c r="AG51" s="59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH51" s="79"/>
       <c r="AI51" s="5"/>
@@ -41600,12 +41609,12 @@
     <row r="53" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:34">
       <c r="A53" s="32"/>
       <c r="B53" s="42" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C53" s="43"/>
       <c r="D53" s="43"/>
       <c r="E53" s="44" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
@@ -41640,7 +41649,7 @@
     <row r="54" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:34">
       <c r="A54" s="32"/>
       <c r="B54" s="42" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
@@ -41678,7 +41687,7 @@
     <row r="55" s="3" customFormat="1" ht="12.75" customHeight="1" spans="1:34">
       <c r="A55" s="32"/>
       <c r="B55" s="44" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -41716,7 +41725,7 @@
     <row r="56" s="3" customFormat="1" ht="12.75" customHeight="1" spans="1:34">
       <c r="A56" s="32"/>
       <c r="B56" s="46" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
